--- a/Aplikasi Skripsi/Data Predict/DataPredict Anies.xlsx
+++ b/Aplikasi Skripsi/Data Predict/DataPredict Anies.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B367C16-3104-4A7C-9899-DF1C6927536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE9684-ED30-4D92-BCA7-6C4FA40879F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11124,7 +11135,7 @@
   <dimension ref="A1:D2843"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2829" workbookViewId="0">
-      <selection activeCell="G2843" sqref="G2843"/>
+      <selection activeCell="F2841" sqref="F2841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50874,15 +50885,15 @@
         <v>3</v>
       </c>
       <c r="B2841">
-        <f>COUNTIFS($B$2:$B$2838,$A2841,$C$2:$C$2838,B$2840)</f>
+        <f t="shared" ref="B2841:D2843" si="0">COUNTIFS($B$2:$B$2838,$A2841,$C$2:$C$2838,B$2840)</f>
         <v>893</v>
       </c>
       <c r="C2841">
-        <f>COUNTIFS($B$2:$B$2838,$A2841,$C$2:$C$2838,C$2840)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D2841">
-        <f>COUNTIFS($B$2:$B$2838,$A2841,$C$2:$C$2838,D$2840)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -50891,15 +50902,15 @@
         <v>1024</v>
       </c>
       <c r="B2842">
-        <f>COUNTIFS($B$2:$B$2838,$A2842,$C$2:$C$2838,B$2840)</f>
+        <f t="shared" si="0"/>
         <v>964</v>
       </c>
       <c r="C2842">
-        <f>COUNTIFS($B$2:$B$2838,$A2842,$C$2:$C$2838,C$2840)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D2842">
-        <f>COUNTIFS($B$2:$B$2838,$A2842,$C$2:$C$2838,D$2840)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
@@ -50908,15 +50919,15 @@
         <v>2094</v>
       </c>
       <c r="B2843">
-        <f>COUNTIFS($B$2:$B$2838,$A2843,$C$2:$C$2838,B$2840)</f>
+        <f t="shared" si="0"/>
         <v>673</v>
       </c>
       <c r="C2843">
-        <f>COUNTIFS($B$2:$B$2838,$A2843,$C$2:$C$2838,C$2840)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D2843">
-        <f>COUNTIFS($B$2:$B$2838,$A2843,$C$2:$C$2838,D$2840)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>

--- a/Aplikasi Skripsi/Data Predict/DataPredict Anies.xlsx
+++ b/Aplikasi Skripsi/Data Predict/DataPredict Anies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Predict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE9684-ED30-4D92-BCA7-6C4FA40879F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DAA2C-4E59-4593-801C-0EF59AB7B3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5680" uniqueCount="2830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="2830">
   <si>
     <t>Bulan</t>
   </si>
@@ -11132,11 +11132,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2843"/>
+  <dimension ref="A1:D2838"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2829" workbookViewId="0">
-      <selection activeCell="F2841" sqref="F2841"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A2801" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11355,7 +11353,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -13441,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="s">
         <v>167</v>
@@ -13511,7 +13509,7 @@
         <v>3</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D170" t="s">
         <v>172</v>
@@ -13609,7 +13607,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
         <v>179</v>
@@ -13847,7 +13845,7 @@
         <v>3</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="s">
         <v>196</v>
@@ -14155,7 +14153,7 @@
         <v>3</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="s">
         <v>218</v>
@@ -14211,7 +14209,7 @@
         <v>3</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="s">
         <v>222</v>
@@ -14295,7 +14293,7 @@
         <v>3</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D226" t="s">
         <v>228</v>
@@ -14645,7 +14643,7 @@
         <v>3</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D251" t="s">
         <v>253</v>
@@ -15359,7 +15357,7 @@
         <v>3</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="s">
         <v>304</v>
@@ -15611,7 +15609,7 @@
         <v>3</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D320" t="s">
         <v>322</v>
@@ -15849,7 +15847,7 @@
         <v>3</v>
       </c>
       <c r="C337">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D337" t="s">
         <v>339</v>
@@ -16591,7 +16589,7 @@
         <v>3</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D390" t="s">
         <v>392</v>
@@ -17277,7 +17275,7 @@
         <v>3</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D439" t="s">
         <v>441</v>
@@ -17697,7 +17695,7 @@
         <v>3</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D469" t="s">
         <v>471</v>
@@ -17823,7 +17821,7 @@
         <v>3</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D478" t="s">
         <v>480</v>
@@ -18033,7 +18031,7 @@
         <v>3</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D493" t="s">
         <v>495</v>
@@ -18523,7 +18521,7 @@
         <v>3</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D528" t="s">
         <v>530</v>
@@ -18635,7 +18633,7 @@
         <v>3</v>
       </c>
       <c r="C536">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D536" t="s">
         <v>538</v>
@@ -18943,7 +18941,7 @@
         <v>3</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D558" t="s">
         <v>560</v>
@@ -19699,7 +19697,7 @@
         <v>3</v>
       </c>
       <c r="C612">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D612" t="s">
         <v>614</v>
@@ -20889,7 +20887,7 @@
         <v>3</v>
       </c>
       <c r="C697">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D697" t="s">
         <v>699</v>
@@ -21477,7 +21475,7 @@
         <v>3</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D739" t="s">
         <v>741</v>
@@ -22303,7 +22301,7 @@
         <v>3</v>
       </c>
       <c r="C798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D798" t="s">
         <v>800</v>
@@ -23073,7 +23071,7 @@
         <v>3</v>
       </c>
       <c r="C853">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D853" t="s">
         <v>855</v>
@@ -23297,7 +23295,7 @@
         <v>3</v>
       </c>
       <c r="C869">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D869" t="s">
         <v>871</v>
@@ -26615,7 +26613,7 @@
         <v>1024</v>
       </c>
       <c r="C1106">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1106" t="s">
         <v>1108</v>
@@ -27133,7 +27131,7 @@
         <v>1024</v>
       </c>
       <c r="C1143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1143" t="s">
         <v>1145</v>
@@ -27189,7 +27187,7 @@
         <v>1024</v>
       </c>
       <c r="C1147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1147" t="s">
         <v>1149</v>
@@ -27441,7 +27439,7 @@
         <v>1024</v>
       </c>
       <c r="C1165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1165" t="s">
         <v>1167</v>
@@ -28239,7 +28237,7 @@
         <v>1024</v>
       </c>
       <c r="C1222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1222" t="s">
         <v>1224</v>
@@ -30073,7 +30071,7 @@
         <v>1024</v>
       </c>
       <c r="C1353">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1353" t="s">
         <v>1355</v>
@@ -30185,7 +30183,7 @@
         <v>1024</v>
       </c>
       <c r="C1361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1361" t="s">
         <v>1362</v>
@@ -30423,7 +30421,7 @@
         <v>1024</v>
       </c>
       <c r="C1378">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1378" t="s">
         <v>1379</v>
@@ -30479,7 +30477,7 @@
         <v>1024</v>
       </c>
       <c r="C1382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1382" t="s">
         <v>1383</v>
@@ -31487,7 +31485,7 @@
         <v>1024</v>
       </c>
       <c r="C1454">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1454" t="s">
         <v>1455</v>
@@ -32733,7 +32731,7 @@
         <v>1024</v>
       </c>
       <c r="C1543">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1543" t="s">
         <v>1543</v>
@@ -35393,7 +35391,7 @@
         <v>1024</v>
       </c>
       <c r="C1733">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1733" t="s">
         <v>1729</v>
@@ -36135,7 +36133,7 @@
         <v>1024</v>
       </c>
       <c r="C1786">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1786" t="s">
         <v>1782</v>
@@ -38319,7 +38317,7 @@
         <v>1024</v>
       </c>
       <c r="C1942">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1942" t="s">
         <v>1935</v>
@@ -38501,7 +38499,7 @@
         <v>1024</v>
       </c>
       <c r="C1955">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D1955" t="s">
         <v>1948</v>
@@ -40153,7 +40151,7 @@
         <v>1024</v>
       </c>
       <c r="C2073">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2073" t="s">
         <v>2066</v>
@@ -40671,7 +40669,7 @@
         <v>2094</v>
       </c>
       <c r="C2110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2110" t="s">
         <v>2103</v>
@@ -40797,7 +40795,7 @@
         <v>2094</v>
       </c>
       <c r="C2119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2119" t="s">
         <v>2112</v>
@@ -41525,7 +41523,7 @@
         <v>2094</v>
       </c>
       <c r="C2171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2171" t="s">
         <v>2164</v>
@@ -41791,7 +41789,7 @@
         <v>2094</v>
       </c>
       <c r="C2190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2190" t="s">
         <v>2183</v>
@@ -42211,7 +42209,7 @@
         <v>2094</v>
       </c>
       <c r="C2220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2220" t="s">
         <v>2213</v>
@@ -42365,7 +42363,7 @@
         <v>2094</v>
       </c>
       <c r="C2231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2231" t="s">
         <v>2224</v>
@@ -42449,7 +42447,7 @@
         <v>2094</v>
       </c>
       <c r="C2237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2237" t="s">
         <v>2230</v>
@@ -42827,7 +42825,7 @@
         <v>2094</v>
       </c>
       <c r="C2264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2264" t="s">
         <v>2256</v>
@@ -44507,7 +44505,7 @@
         <v>2094</v>
       </c>
       <c r="C2384">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2384" t="s">
         <v>2376</v>
@@ -44633,7 +44631,7 @@
         <v>2094</v>
       </c>
       <c r="C2393">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2393" t="s">
         <v>2385</v>
@@ -44661,7 +44659,7 @@
         <v>2094</v>
       </c>
       <c r="C2395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2395" t="s">
         <v>2387</v>
@@ -45053,7 +45051,7 @@
         <v>2094</v>
       </c>
       <c r="C2423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2423" t="s">
         <v>2415</v>
@@ -45389,7 +45387,7 @@
         <v>2094</v>
       </c>
       <c r="C2447">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2447" t="s">
         <v>2439</v>
@@ -45697,7 +45695,7 @@
         <v>2094</v>
       </c>
       <c r="C2469">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2469" t="s">
         <v>2461</v>
@@ -46033,7 +46031,7 @@
         <v>2094</v>
       </c>
       <c r="C2493">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2493" t="s">
         <v>2484</v>
@@ -46103,7 +46101,7 @@
         <v>2094</v>
       </c>
       <c r="C2498">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2498" t="s">
         <v>2489</v>
@@ -46229,7 +46227,7 @@
         <v>2094</v>
       </c>
       <c r="C2507">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2507" t="s">
         <v>2498</v>
@@ -46705,7 +46703,7 @@
         <v>2094</v>
       </c>
       <c r="C2541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2541" t="s">
         <v>2532</v>
@@ -47013,7 +47011,7 @@
         <v>2094</v>
       </c>
       <c r="C2563">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2563" t="s">
         <v>2554</v>
@@ -48665,7 +48663,7 @@
         <v>2094</v>
       </c>
       <c r="C2681">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2681" t="s">
         <v>2672</v>
@@ -49407,7 +49405,7 @@
         <v>2094</v>
       </c>
       <c r="C2734">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2734" t="s">
         <v>2725</v>
@@ -49869,7 +49867,7 @@
         <v>2094</v>
       </c>
       <c r="C2767">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2767" t="s">
         <v>2758</v>
@@ -49925,7 +49923,7 @@
         <v>2094</v>
       </c>
       <c r="C2771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2771" t="s">
         <v>2762</v>
@@ -50009,7 +50007,7 @@
         <v>2094</v>
       </c>
       <c r="C2777">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2777" t="s">
         <v>2768</v>
@@ -50107,7 +50105,7 @@
         <v>2094</v>
       </c>
       <c r="C2784">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2784" t="s">
         <v>2775</v>
@@ -50611,7 +50609,7 @@
         <v>2094</v>
       </c>
       <c r="C2820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2820" t="s">
         <v>2811</v>
@@ -50681,7 +50679,7 @@
         <v>2094</v>
       </c>
       <c r="C2825">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2825" t="s">
         <v>2816</v>
@@ -50821,7 +50819,7 @@
         <v>2094</v>
       </c>
       <c r="C2835">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2835" t="s">
         <v>2826</v>
@@ -50867,68 +50865,6 @@
       </c>
       <c r="D2838" t="s">
         <v>2829</v>
-      </c>
-    </row>
-    <row r="2840" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2840">
-        <v>1</v>
-      </c>
-      <c r="C2840">
-        <v>0</v>
-      </c>
-      <c r="D2840">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="2841" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2841" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2841">
-        <f t="shared" ref="B2841:D2843" si="0">COUNTIFS($B$2:$B$2838,$A2841,$C$2:$C$2838,B$2840)</f>
-        <v>893</v>
-      </c>
-      <c r="C2841">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D2841">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2842" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2842" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B2842">
-        <f t="shared" si="0"/>
-        <v>964</v>
-      </c>
-      <c r="C2842">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D2842">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2843" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2843" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B2843">
-        <f t="shared" si="0"/>
-        <v>673</v>
-      </c>
-      <c r="C2843">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D2843">
-        <f t="shared" si="0"/>
-        <v>36</v>
       </c>
     </row>
   </sheetData>
